--- a/excel_templates/parceltariff.xlsx
+++ b/excel_templates/parceltariff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtse\Documents\Python Scripts\epg wkg\2022-08-10 Rate Card Flask Demo\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtse\source\Workspaces\QuoteTestApp\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEE7CDA-FC71-4F73-B5A1-F06E533EFD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244994A0-D179-42A9-BCC0-2CF99E20CDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46CACC1E-1B77-46EB-83A0-CFA944E72F12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{46CACC1E-1B77-46EB-83A0-CFA944E72F12}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="8" r:id="rId1"/>
@@ -3009,7 +3009,7 @@
   </sheetPr>
   <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
@@ -4763,19 +4763,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717C4292-31F6-45CC-ABA5-E4C40A83A247}">
   <dimension ref="B1:C8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="16384" width="13.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/excel_templates/parceltariff.xlsx
+++ b/excel_templates/parceltariff.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtse\source\Workspaces\QuoteTestApp\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6078C5-2C6C-4FE1-99A7-BBB5AC1DD6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4349B0E-99C8-4F44-B92E-505BF0F8D92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46CACC1E-1B77-46EB-83A0-CFA944E72F12}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cover Page" sheetId="8" r:id="rId1"/>
-    <sheet name="Disclosure" sheetId="7" r:id="rId2"/>
-    <sheet name="CA FSC" sheetId="9" r:id="rId3"/>
-    <sheet name="Shopped Lb" sheetId="10" r:id="rId4"/>
+    <sheet name="Shopped Lb" sheetId="10" r:id="rId1"/>
+    <sheet name="Service Overview" sheetId="8" r:id="rId2"/>
+    <sheet name="Disclosure" sheetId="7" r:id="rId3"/>
+    <sheet name="CA FSC" sheetId="9" r:id="rId4"/>
+    <sheet name="Surcharges" sheetId="11" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="clearance">[1]Specs!$B$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Cover Page'!$A$1:$A$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Disclosure!$A$1:$A$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Disclosure!$A$1:$A$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Service Overview'!$A$1:$A$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>Weight (Lbs)</t>
   </si>
@@ -286,6 +287,30 @@
   </si>
   <si>
     <t>Rates pending commodity approval, and are subject to change. Quote valid for 30 days.</t>
+  </si>
+  <si>
+    <t>Surcharge per Destination</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>per lb.</t>
+  </si>
+  <si>
+    <t>Product codes</t>
+  </si>
+  <si>
+    <t>Duties &amp; Taxes vary by country. 
+Seller must register for United Kingdom (GB) VAT, and is responsible for VAT on shipments valued under 135 GBP. ePost Global will pay for VAT on shipments valued greater than or equal to 135 GBP, then bill the seller.
+For EU shipments valued under 150 EUR, Duties and Taxes will apply from first dollar to all goods unless an IOSS number is provided.
+Please consult your sales representative for more information.</t>
+  </si>
+  <si>
+    <t>See CA FSC chart for applicable % that will be applied to CA rate. Rates are subject to change with 30 days notice</t>
   </si>
 </sst>
 </file>
@@ -382,7 +407,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -420,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -463,13 +488,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -491,7 +524,7 @@
       <protection hidden="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,6 +605,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -593,29 +651,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="CountryHeader" xfId="5" xr:uid="{6F0A85DB-7F90-41E2-8CFD-EA3D617BF5B5}"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+  <cellStyles count="9">
+    <cellStyle name="CountryHeader" xfId="4" xr:uid="{6F0A85DB-7F90-41E2-8CFD-EA3D617BF5B5}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{7935EA5D-5452-4453-966C-9CC40CD909A8}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{373F5AC9-AB29-4EDC-B368-F0033B2E31DE}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="RateEven" xfId="7" xr:uid="{411C941B-9B51-4D5F-AE40-EEB2641FBC4E}"/>
-    <cellStyle name="RateOdd" xfId="6" xr:uid="{3566A2A9-62D4-4AF6-ACBB-E0D53CE81161}"/>
-    <cellStyle name="WeightEven" xfId="9" xr:uid="{91D3D49F-EF05-4FA3-A3BA-1E7629B1456D}"/>
-    <cellStyle name="WeightOdd" xfId="8" xr:uid="{506FB70B-F6DD-4AA3-AC51-B60923F76991}"/>
+    <cellStyle name="RateEven" xfId="6" xr:uid="{411C941B-9B51-4D5F-AE40-EEB2641FBC4E}"/>
+    <cellStyle name="RateOdd" xfId="5" xr:uid="{3566A2A9-62D4-4AF6-ACBB-E0D53CE81161}"/>
+    <cellStyle name="WeightEven" xfId="8" xr:uid="{91D3D49F-EF05-4FA3-A3BA-1E7629B1456D}"/>
+    <cellStyle name="WeightOdd" xfId="7" xr:uid="{506FB70B-F6DD-4AA3-AC51-B60923F76991}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -635,13 +684,63 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="851423_NewLogo4_100720.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0B26F6-C1B7-4003-9B4D-8882CF5AE10F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect t="13641" b="16544"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2518025" cy="847801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>46990</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>86451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:colOff>1214967</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1011193</xdr:rowOff>
     </xdr:to>
@@ -680,7 +779,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -730,7 +829,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -780,27 +879,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>923925</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12950</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>637026</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9601</xdr:rowOff>
+      <xdr:rowOff>14111</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1" descr="851423_NewLogo4_100720.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0B26F6-C1B7-4003-9B4D-8882CF5AE10F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1875D1C-1895-4928-86E0-5801CC88A2D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -817,8 +916,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2518025" cy="847801"/>
+          <a:off x="923925" y="0"/>
+          <a:ext cx="2561076" cy="966611"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -857,6 +956,11 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Priority Parcel DelCon</v>
+          </cell>
+        </row>
         <row r="2">
           <cell r="B2" t="str">
             <v>DDP</v>
@@ -865,7 +969,13 @@
       </sheetData>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="11">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LAX</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1167,6 +1277,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717C4292-31F6-45CC-ABA5-E4C40A83A247}">
+  <dimension ref="B1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="13.7109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="2:3" ht="25.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="2:3" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3A3C51-4027-4215-9BD2-600CE87C4526}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -1174,15 +1330,14 @@
   </sheetPr>
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="31.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="11" customWidth="1"/>
-    <col min="2" max="5" width="32" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="19.5703125" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="31.85546875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="91.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1220,22 +1375,22 @@
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:29" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:29" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="1:29" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
@@ -1243,80 +1398,89 @@
       <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:29" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:29" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="E7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="F7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="G7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="H7" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:29" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="G8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:29" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="H9" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="D10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="18">
+      <c r="E10" s="18">
         <v>400</v>
       </c>
-      <c r="C10" s="18">
+      <c r="F10" s="18">
         <v>400</v>
       </c>
-      <c r="D10" s="18">
+      <c r="G10" s="18">
         <v>2500</v>
       </c>
-      <c r="E10" s="18">
+      <c r="H10" s="18">
         <v>2500</v>
       </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1330,24 +1494,21 @@
       <c r="S10"/>
     </row>
     <row r="11" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="G11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1361,24 +1522,21 @@
       <c r="S11"/>
     </row>
     <row r="12" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="D12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="H12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1392,24 +1550,21 @@
       <c r="S12"/>
     </row>
     <row r="13" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="G13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="H13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1423,24 +1578,21 @@
       <c r="S13"/>
     </row>
     <row r="14" spans="1:29" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="D14" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
+      <c r="F14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1454,24 +1606,21 @@
       <c r="S14"/>
     </row>
     <row r="15" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
+      <c r="F15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1485,24 +1634,21 @@
       <c r="S15"/>
     </row>
     <row r="16" spans="1:29" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="D16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="F16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1515,25 +1661,22 @@
       <c r="R16"/>
       <c r="S16"/>
     </row>
-    <row r="17" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="4:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="E17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="F17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="G17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="H17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1546,25 +1689,22 @@
       <c r="R17"/>
       <c r="S17"/>
     </row>
-    <row r="18" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="4:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
+      <c r="F18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1577,25 +1717,22 @@
       <c r="R18"/>
       <c r="S18"/>
     </row>
-    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="4:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="D19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="F19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="G19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="H19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1608,25 +1745,22 @@
       <c r="R19"/>
       <c r="S19"/>
     </row>
-    <row r="20" spans="1:19" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="4:19" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="E20" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="F20" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="G20" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="H20" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1652,7 +1786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48075903-251F-48BC-901A-76019D13C6B9}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -1678,16 +1812,16 @@
       <c r="A1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1698,52 +1832,44 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="str">
-        <f>"Duties &amp; Taxes vary by country. 
-Seller must register for United Kingdom (GB) VAT, and is responsible for VAT on shipments valued under 135 GBP. "&amp;IF(LEFT(clearance,3)="DDP","ePost Global will pay for VAT on shipments valued greater than or equal to 135 GBP, then bill the seller.
-For EU shipments valued under 150 EUR, Duties and Taxes will apply from first dollar to all goods unless an IOSS number is provided.","Recipient will pay for VAT on shipments valued greater than or equal to 135 GBP.")&amp;"
-Please consult your sales representative for more information."</f>
-        <v>Duties &amp; Taxes vary by country. 
-Seller must register for United Kingdom (GB) VAT, and is responsible for VAT on shipments valued under 135 GBP. ePost Global will pay for VAT on shipments valued greater than or equal to 135 GBP, then bill the seller.
-For EU shipments valued under 150 EUR, Duties and Taxes will apply from first dollar to all goods unless an IOSS number is provided.
-Please consult your sales representative for more information.</v>
+      <c r="A5" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="str">
-        <f>IF(clearance="DDP","See CA FSC chart for applicable % that will be applied to CA rate. Rates are subject to change with 30 days notice",IF(clearance="DDU","Rates are subject to change with 30 days notice","See CA FSC chart for applicable % that will be applied to CA rate. Rates are subject to change with 30 days notice"))</f>
-        <v>See CA FSC chart for applicable % that will be applied to CA rate. Rates are subject to change with 30 days notice</v>
+      <c r="A6" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="35"/>
     </row>
     <row r="8" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="34"/>
     </row>
     <row r="9" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="35"/>
     </row>
     <row r="10" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="34"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
@@ -1766,17 +1892,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF98E86E-599C-4036-B3F0-7139F97C04DA}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A5:C78"/>
+  <dimension ref="A5:C44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D7" sqref="D7"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,11 +1911,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2001,191 +2127,165 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="28">
         <v>1.61</v>
       </c>
-      <c r="B25" s="9">
-        <v>1.63</v>
-      </c>
-      <c r="C25" s="23">
+      <c r="B25" s="28">
+        <v>1.67</v>
+      </c>
+      <c r="C25" s="29">
         <v>0.10000000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="B26" s="8">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="C26" s="24">
-        <v>0.10500000000000002</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
-        <f>B26</f>
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="B27" s="9">
-        <f>B26+0.02</f>
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="C27" s="23">
-        <v>0.11000000000000003</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
-        <f t="shared" ref="A28:A75" si="0">B27</f>
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="B28" s="8">
-        <f t="shared" ref="B28:B75" si="1">B27+0.02</f>
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="C28" s="24">
-        <v>0.11500000000000003</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
-        <f t="shared" si="0"/>
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="B29" s="9">
-        <f t="shared" si="1"/>
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="C29" s="23">
-        <v>0.12000000000000004</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <f t="shared" si="0"/>
-        <v>1.71</v>
+        <v>1.9100000000000001</v>
       </c>
       <c r="B30" s="8">
-        <f t="shared" si="1"/>
-        <v>1.73</v>
+        <v>1.97</v>
       </c>
       <c r="C30" s="24">
-        <v>0.12500000000000003</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
-        <f t="shared" si="0"/>
-        <v>1.73</v>
+        <v>1.9700000000000002</v>
       </c>
       <c r="B31" s="9">
-        <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C31" s="23">
-        <v>0.13000000000000003</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>2.0300000000000002</v>
       </c>
       <c r="B32" s="8">
-        <f t="shared" si="1"/>
-        <v>1.77</v>
+        <v>2.09</v>
       </c>
       <c r="C32" s="24">
-        <v>0.13500000000000004</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
-        <f t="shared" si="0"/>
-        <v>1.77</v>
+        <v>2.0900000000000003</v>
       </c>
       <c r="B33" s="9">
-        <f t="shared" si="1"/>
-        <v>1.79</v>
+        <v>2.15</v>
       </c>
       <c r="C33" s="23">
-        <v>0.14000000000000004</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <f t="shared" si="0"/>
-        <v>1.79</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="B34" s="8">
-        <f t="shared" si="1"/>
-        <v>1.81</v>
+        <v>2.21</v>
       </c>
       <c r="C34" s="24">
-        <v>0.14500000000000005</v>
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
-        <f t="shared" si="0"/>
-        <v>1.81</v>
+        <v>2.2100000000000004</v>
       </c>
       <c r="B35" s="9">
-        <f t="shared" si="1"/>
-        <v>1.83</v>
+        <v>2.27</v>
       </c>
       <c r="C35" s="23">
-        <v>0.15000000000000005</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
-        <f t="shared" si="0"/>
-        <v>1.83</v>
+        <v>2.2700000000000005</v>
       </c>
       <c r="B36" s="8">
-        <f t="shared" si="1"/>
-        <v>1.85</v>
+        <v>2.33</v>
       </c>
       <c r="C36" s="24">
-        <v>0.15500000000000005</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
-        <f t="shared" si="0"/>
-        <v>1.85</v>
+        <v>2.3300000000000005</v>
       </c>
       <c r="B37" s="9">
-        <f t="shared" si="1"/>
-        <v>1.87</v>
+        <v>2.39</v>
       </c>
       <c r="C37" s="23">
-        <v>0.16000000000000006</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <f t="shared" si="0"/>
-        <v>1.87</v>
+        <v>2.3900000000000006</v>
       </c>
       <c r="B38" s="8">
-        <f t="shared" si="1"/>
-        <v>1.8900000000000001</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="C38" s="24">
-        <v>0.16500000000000006</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
-        <f t="shared" si="0"/>
-        <v>1.8900000000000001</v>
+        <v>2.4500000000000006</v>
       </c>
       <c r="B39" s="9">
-        <f t="shared" si="1"/>
-        <v>1.9100000000000001</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="C39" s="23">
         <v>0.17</v>
@@ -2193,542 +2293,92 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9100000000000001</v>
+        <v>2.5100000000000007</v>
       </c>
       <c r="B40" s="8">
-        <f t="shared" si="1"/>
-        <v>1.9300000000000002</v>
+        <v>2.57</v>
       </c>
       <c r="C40" s="24">
         <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9300000000000002</v>
-      </c>
-      <c r="B41" s="9">
-        <f t="shared" si="1"/>
-        <v>1.9500000000000002</v>
-      </c>
-      <c r="C41" s="23">
+      <c r="A41" s="30">
+        <v>2.5700000000000007</v>
+      </c>
+      <c r="B41" s="30">
+        <v>2.63</v>
+      </c>
+      <c r="C41" s="31">
         <v>0.18</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9500000000000002</v>
-      </c>
-      <c r="B42" s="8">
-        <f t="shared" si="1"/>
-        <v>1.9700000000000002</v>
-      </c>
-      <c r="C42" s="24">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9700000000000002</v>
-      </c>
-      <c r="B43" s="9">
-        <f t="shared" si="1"/>
-        <v>1.9900000000000002</v>
-      </c>
-      <c r="C43" s="23">
-        <v>0.19</v>
-      </c>
+    <row r="43" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <f t="shared" si="0"/>
-        <v>1.9900000000000002</v>
-      </c>
-      <c r="B44" s="8">
-        <f t="shared" si="1"/>
-        <v>2.0100000000000002</v>
-      </c>
-      <c r="C44" s="24">
-        <v>0.19500000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <f t="shared" si="0"/>
-        <v>2.0100000000000002</v>
-      </c>
-      <c r="B45" s="9">
-        <f t="shared" si="1"/>
-        <v>2.0300000000000002</v>
-      </c>
-      <c r="C45" s="23">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <f t="shared" si="0"/>
-        <v>2.0300000000000002</v>
-      </c>
-      <c r="B46" s="8">
-        <f t="shared" si="1"/>
-        <v>2.0500000000000003</v>
-      </c>
-      <c r="C46" s="24">
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <f t="shared" si="0"/>
-        <v>2.0500000000000003</v>
-      </c>
-      <c r="B47" s="9">
-        <f t="shared" si="1"/>
-        <v>2.0700000000000003</v>
-      </c>
-      <c r="C47" s="23">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <f t="shared" si="0"/>
-        <v>2.0700000000000003</v>
-      </c>
-      <c r="B48" s="8">
-        <f t="shared" si="1"/>
-        <v>2.0900000000000003</v>
-      </c>
-      <c r="C48" s="24">
-        <v>0.215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <f t="shared" si="0"/>
-        <v>2.0900000000000003</v>
-      </c>
-      <c r="B49" s="9">
-        <f t="shared" si="1"/>
-        <v>2.1100000000000003</v>
-      </c>
-      <c r="C49" s="23">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
-        <f t="shared" si="0"/>
-        <v>2.1100000000000003</v>
-      </c>
-      <c r="B50" s="8">
-        <f t="shared" si="1"/>
-        <v>2.1300000000000003</v>
-      </c>
-      <c r="C50" s="24">
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
-        <f t="shared" si="0"/>
-        <v>2.1300000000000003</v>
-      </c>
-      <c r="B51" s="9">
-        <f t="shared" si="1"/>
-        <v>2.1500000000000004</v>
-      </c>
-      <c r="C51" s="23">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
-        <f t="shared" si="0"/>
-        <v>2.1500000000000004</v>
-      </c>
-      <c r="B52" s="8">
-        <f t="shared" si="1"/>
-        <v>2.1700000000000004</v>
-      </c>
-      <c r="C52" s="24">
-        <v>0.23499999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
-        <f t="shared" si="0"/>
-        <v>2.1700000000000004</v>
-      </c>
-      <c r="B53" s="9">
-        <f t="shared" si="1"/>
-        <v>2.1900000000000004</v>
-      </c>
-      <c r="C53" s="23">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
-        <f t="shared" si="0"/>
-        <v>2.1900000000000004</v>
-      </c>
-      <c r="B54" s="8">
-        <f t="shared" si="1"/>
-        <v>2.2100000000000004</v>
-      </c>
-      <c r="C54" s="24">
-        <v>0.245</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
-        <f t="shared" si="0"/>
-        <v>2.2100000000000004</v>
-      </c>
-      <c r="B55" s="9">
-        <f t="shared" si="1"/>
-        <v>2.2300000000000004</v>
-      </c>
-      <c r="C55" s="23">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
-        <f t="shared" si="0"/>
-        <v>2.2300000000000004</v>
-      </c>
-      <c r="B56" s="8">
-        <f t="shared" si="1"/>
-        <v>2.2500000000000004</v>
-      </c>
-      <c r="C56" s="24">
-        <v>0.255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
-        <f t="shared" si="0"/>
-        <v>2.2500000000000004</v>
-      </c>
-      <c r="B57" s="9">
-        <f t="shared" si="1"/>
-        <v>2.2700000000000005</v>
-      </c>
-      <c r="C57" s="23">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
-        <f t="shared" si="0"/>
-        <v>2.2700000000000005</v>
-      </c>
-      <c r="B58" s="8">
-        <f t="shared" si="1"/>
-        <v>2.2900000000000005</v>
-      </c>
-      <c r="C58" s="24">
-        <v>0.26500000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
-        <f t="shared" si="0"/>
-        <v>2.2900000000000005</v>
-      </c>
-      <c r="B59" s="9">
-        <f t="shared" si="1"/>
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="C59" s="23">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
-        <f t="shared" si="0"/>
-        <v>2.3100000000000005</v>
-      </c>
-      <c r="B60" s="8">
-        <f t="shared" si="1"/>
-        <v>2.3300000000000005</v>
-      </c>
-      <c r="C60" s="24">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
-        <f t="shared" si="0"/>
-        <v>2.3300000000000005</v>
-      </c>
-      <c r="B61" s="9">
-        <f t="shared" si="1"/>
-        <v>2.3500000000000005</v>
-      </c>
-      <c r="C61" s="23">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
-        <f t="shared" si="0"/>
-        <v>2.3500000000000005</v>
-      </c>
-      <c r="B62" s="8">
-        <f t="shared" si="1"/>
-        <v>2.3700000000000006</v>
-      </c>
-      <c r="C62" s="24">
-        <v>0.28499999999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
-        <f t="shared" si="0"/>
-        <v>2.3700000000000006</v>
-      </c>
-      <c r="B63" s="9">
-        <f t="shared" si="1"/>
-        <v>2.3900000000000006</v>
-      </c>
-      <c r="C63" s="23">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
-        <f t="shared" si="0"/>
-        <v>2.3900000000000006</v>
-      </c>
-      <c r="B64" s="8">
-        <f t="shared" si="1"/>
-        <v>2.4100000000000006</v>
-      </c>
-      <c r="C64" s="24">
-        <v>0.29499999999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <f t="shared" si="0"/>
-        <v>2.4100000000000006</v>
-      </c>
-      <c r="B65" s="9">
-        <f t="shared" si="1"/>
-        <v>2.4300000000000006</v>
-      </c>
-      <c r="C65" s="23">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
-        <f t="shared" si="0"/>
-        <v>2.4300000000000006</v>
-      </c>
-      <c r="B66" s="8">
-        <f t="shared" si="1"/>
-        <v>2.4500000000000006</v>
-      </c>
-      <c r="C66" s="24">
-        <v>0.30499999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
-        <f t="shared" si="0"/>
-        <v>2.4500000000000006</v>
-      </c>
-      <c r="B67" s="9">
-        <f t="shared" si="1"/>
-        <v>2.4700000000000006</v>
-      </c>
-      <c r="C67" s="23">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
-        <f t="shared" si="0"/>
-        <v>2.4700000000000006</v>
-      </c>
-      <c r="B68" s="8">
-        <f t="shared" si="1"/>
-        <v>2.4900000000000007</v>
-      </c>
-      <c r="C68" s="24">
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
-        <f t="shared" si="0"/>
-        <v>2.4900000000000007</v>
-      </c>
-      <c r="B69" s="9">
-        <f t="shared" si="1"/>
-        <v>2.5100000000000007</v>
-      </c>
-      <c r="C69" s="23">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
-        <f t="shared" si="0"/>
-        <v>2.5100000000000007</v>
-      </c>
-      <c r="B70" s="8">
-        <f t="shared" si="1"/>
-        <v>2.5300000000000007</v>
-      </c>
-      <c r="C70" s="24">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
-        <f t="shared" si="0"/>
-        <v>2.5300000000000007</v>
-      </c>
-      <c r="B71" s="9">
-        <f t="shared" si="1"/>
-        <v>2.5500000000000007</v>
-      </c>
-      <c r="C71" s="23">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
-        <f t="shared" si="0"/>
-        <v>2.5500000000000007</v>
-      </c>
-      <c r="B72" s="8">
-        <f t="shared" si="1"/>
-        <v>2.5700000000000007</v>
-      </c>
-      <c r="C72" s="24">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
-        <f t="shared" si="0"/>
-        <v>2.5700000000000007</v>
-      </c>
-      <c r="B73" s="9">
-        <f t="shared" si="1"/>
-        <v>2.5900000000000007</v>
-      </c>
-      <c r="C73" s="23">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
-        <f t="shared" si="0"/>
-        <v>2.5900000000000007</v>
-      </c>
-      <c r="B74" s="8">
-        <f t="shared" si="1"/>
-        <v>2.6100000000000008</v>
-      </c>
-      <c r="C74" s="24">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
-        <f t="shared" si="0"/>
-        <v>2.6100000000000008</v>
-      </c>
-      <c r="B75" s="9">
-        <f t="shared" si="1"/>
-        <v>2.6300000000000008</v>
-      </c>
-      <c r="C75" s="23">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
+      <c r="A44" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A78" r:id="rId1" display="https://charting.kalibrate.com/" xr:uid="{7BD5D0C5-A0FA-4269-9B1D-999BA13CEAEF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717C4292-31F6-45CC-ABA5-E4C40A83A247}">
-  <dimension ref="B1:C8"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5896B076-4075-4747-8249-F39E373D0377}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A8:D9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="13.7109375" style="2"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="2:3" ht="25.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="2:3" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
-        <v>1</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>